--- a/StructureDefinition-ext-specimen-collection-place.xlsx
+++ b/StructureDefinition-ext-specimen-collection-place.xlsx
@@ -212,7 +212,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/StructureDefinition/ext-specimen-collection-place</t>
+    <t>http://openhie.org/fhir/hiv-casereporting/StructureDefinition/ext-specimen-collection-place</t>
   </si>
   <si>
     <t>N/A</t>
@@ -248,7 +248,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/ValueSet/vs-ethnicity</t>
+    <t>http://openhie.org/fhir/hiv-casereporting/ValueSet/vs-ethnicity</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="41.46875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.1953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
